--- a/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 2,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 10,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 9,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 7,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,95; 91,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 109,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,28; 160,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,72; 90,0</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 4,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 4,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 4,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,15; 58,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,39; 50,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,47; 164,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,31; 26,12</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 2,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,15; 1,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,98; 188,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,17; 64,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 545,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,02; 13,98</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 3,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 7,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 2,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,92; 94,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,59; 205,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,44; 94,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,83; 39,39</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 9,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,25; 10,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 5,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 4,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,67; 128,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 62,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; 114,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,95; 79,27</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 10,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 7,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 5,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,11; 797,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 176,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 94,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,9; 27,35</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,61%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 3,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 4,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 4,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 55,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; 69,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 78,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,87; 117,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,18; 396,67</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,31%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 6,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 3,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 3,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 8,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 102,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,49; 50,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,73; 48,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,69; 281,52</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,71%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 2,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 3,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 20,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 45,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,14; 41,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 46,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 170,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-23,49%</t>
+          <t>-23,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,19</t>
+          <t>-4,29; 2,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,8</t>
+          <t>-2,16; 10,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,47</t>
+          <t>-0,97; 9,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 7,77</t>
+          <t>-2,34; 7,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,95; 91,6</t>
+          <t>-73,2; 99,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 109,08</t>
+          <t>-14,56; 103,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 160,08</t>
+          <t>-11,89; 167,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 90,0</t>
+          <t>-17,12; 89,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-2,76%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,61</t>
+          <t>-3,12; 4,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,02</t>
+          <t>-3,45; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,38</t>
+          <t>-1,43; 4,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,32</t>
+          <t>-6,22; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 58,58</t>
+          <t>-26,14; 58,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 50,69</t>
+          <t>-29,29; 53,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 164,23</t>
+          <t>-27,56; 144,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 26,12</t>
+          <t>-27,1; 26,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-19,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,77</t>
+          <t>-2,42; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 4,39</t>
+          <t>-5,02; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,42</t>
+          <t>-0,12; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 1,67</t>
+          <t>-8,24; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,98; 188,15</t>
+          <t>-58,36; 192,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 64,05</t>
+          <t>-39,99; 67,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 545,53</t>
+          <t>-14,27; 550,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 13,98</t>
+          <t>-41,81; 12,52</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>-30,19%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,92</t>
+          <t>-3,32; 3,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,7</t>
+          <t>1,38; 10,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,88</t>
+          <t>-2,28; 7,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,0</t>
+          <t>-7,72; 1,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 94,83</t>
+          <t>-47,0; 85,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 205,61</t>
+          <t>9,98; 193,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 94,18</t>
+          <t>-18,57; 90,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 39,39</t>
+          <t>-63,74; 24,2</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,0</t>
+          <t>-3,67; 8,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 10,08</t>
+          <t>-5,78; 10,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,85</t>
+          <t>-5,24; 5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,81</t>
+          <t>-5,13; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 128,27</t>
+          <t>-32,71; 119,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 62,91</t>
+          <t>-23,57; 63,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 114,19</t>
+          <t>-47,06; 94,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 79,27</t>
+          <t>-46,65; 77,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>102,98%</t>
+          <t>101,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,96</t>
+          <t>-0,75; 4,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,78</t>
+          <t>-0,43; 10,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,36</t>
+          <t>-3,88; 7,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 5,63</t>
+          <t>-6,46; 6,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 797,17</t>
+          <t>-44,84; 871,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 176,16</t>
+          <t>-4,81; 182,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 94,82</t>
+          <t>-32,78; 95,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 27,35</t>
+          <t>-23,39; 29,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1225,17 +1225,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,53</t>
+          <t>22,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>144,61%</t>
+          <t>142,24%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,81</t>
+          <t>-1,93; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,77</t>
+          <t>-2,02; 4,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,79</t>
+          <t>-1,14; 4,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 55,16</t>
+          <t>1,44; 56,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 69,44</t>
+          <t>-23,99; 69,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 78,12</t>
+          <t>-20,06; 69,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 117,68</t>
+          <t>-16,82; 108,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 396,67</t>
+          <t>8,92; 499,89</t>
         </is>
       </c>
     </row>
@@ -1320,12 +1320,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>67,73%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,79</t>
+          <t>0,47; 6,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,26</t>
+          <t>-2,23; 3,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,51</t>
+          <t>-2,76; 3,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 8,17</t>
+          <t>0,9; 8,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 102,17</t>
+          <t>3,61; 97,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 50,72</t>
+          <t>-23,97; 59,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 48,01</t>
+          <t>-26,74; 45,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 281,52</t>
+          <t>10,46; 266,61</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1440,22 +1440,22 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,41%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,69</t>
+          <t>0,07; 2,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,56</t>
+          <t>0,45; 3,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,91</t>
+          <t>0,35; 2,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 20,42</t>
+          <t>0,38; 20,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 45,4</t>
+          <t>0,46; 44,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,14; 41,42</t>
+          <t>4,5; 41,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,35; 46,21</t>
+          <t>4,3; 46,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 170,32</t>
+          <t>2,86; 191,86</t>
         </is>
       </c>
     </row>
